--- a/Reports/Device/FullRegister/FullRegister.xlsx
+++ b/Reports/Device/FullRegister/FullRegister.xlsx
@@ -132,9 +132,6 @@
     <t>$t1['value_end']</t>
   </si>
   <si>
-    <t>Оъем</t>
-  </si>
-  <si>
     <t>$t1['value']</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>" ".$t1['factory_number']</t>
+  </si>
+  <si>
+    <t>Объем</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -709,7 +709,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>19</v>
@@ -736,7 +736,7 @@
         <v>34</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>21</v>
@@ -780,10 +780,10 @@
         <v>23</v>
       </c>
       <c r="J4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>24</v>
@@ -795,7 +795,7 @@
         <v>36</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>28</v>

--- a/Reports/Device/FullRegister/FullRegister.xlsx
+++ b/Reports/Device/FullRegister/FullRegister.xlsx
@@ -96,9 +96,6 @@
     <t>$t1['year_job']</t>
   </si>
   <si>
-    <t>Дата установки</t>
-  </si>
-  <si>
     <t>Дата ввода в эксплуатацию</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>$t1['name']</t>
   </si>
   <si>
-    <t>$DATE_t1['data_install']</t>
-  </si>
-  <si>
     <t>$DATE_t1['dala_start']</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
   </si>
   <si>
     <t>Объем</t>
+  </si>
+  <si>
+    <t>Дата последней поверки</t>
+  </si>
+  <si>
+    <t>$DATE_t1['date_sealing']</t>
   </si>
 </sst>
 </file>
@@ -275,7 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -303,9 +303,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -617,7 +614,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -638,25 +635,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
@@ -692,12 +689,12 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:28" ht="24">
+    <row r="3" spans="1:28" ht="36">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>16</v>
@@ -709,7 +706,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>19</v>
@@ -720,29 +717,29 @@
       <c r="I3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="M3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>5</v>
@@ -756,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -768,10 +765,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>21</v>
@@ -780,28 +777,28 @@
         <v>23</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="O4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="P4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>6</v>

--- a/Reports/Device/FullRegister/FullRegister.xlsx
+++ b/Reports/Device/FullRegister/FullRegister.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Вид начисления</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>$DATE_t1['date_sealing']</t>
+  </si>
+  <si>
+    <t>$t1['name_type_LS']</t>
+  </si>
+  <si>
+    <t>Тип прибора</t>
   </si>
 </sst>
 </file>
@@ -275,7 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -306,6 +312,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,10 +618,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -627,50 +634,51 @@
     <col min="6" max="6" width="38.42578125" style="1" customWidth="1"/>
     <col min="7" max="9" width="14.28515625" style="1" customWidth="1"/>
     <col min="10" max="11" width="14.28515625" style="19" customWidth="1"/>
-    <col min="12" max="17" width="14.28515625" style="1" customWidth="1"/>
-    <col min="18" max="21" width="9.140625" style="6"/>
-    <col min="22" max="22" width="25.28515625" style="6" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="6"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="18" width="14.28515625" style="1" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="6"/>
+    <col min="23" max="23" width="25.28515625" style="6" customWidth="1"/>
+    <col min="24" max="26" width="9.140625" style="6"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="3" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="5">
+      <c r="V1" s="5">
         <v>3</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="12"/>
@@ -688,8 +696,9 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:28" ht="36">
+    <row r="3" spans="1:29" ht="36">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -741,14 +750,17 @@
       <c r="Q3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="R3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -800,25 +812,28 @@
       <c r="Q4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="9">
+      <c r="V4" s="9">
         <v>1</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AC4" s="10">
         <v>0</v>
       </c>
     </row>
